--- a/SCRUM Documentation_45200165.xlsx
+++ b/SCRUM Documentation_45200165.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Documents\University\COMP255\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C7E912-957E-429E-8655-800CEA3A02A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD74E84E-92D2-451A-ADCB-874CD9F5DC0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F75F8520-71B9-4553-A7A9-640C0921F2D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F75F8520-71B9-4553-A7A9-640C0921F2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Title page" sheetId="4" r:id="rId1"/>
     <sheet name="Product backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint backlog" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint 2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Assignment: SDLC for human activity recognition project</t>
   </si>
@@ -46,9 +47,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>User Stories</t>
   </si>
   <si>
     <t>ID</t>
@@ -147,6 +145,27 @@
   <si>
     <t>Assigned Sprint</t>
   </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Visualize data</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Time hrs 
+(Sep 10th-11th)</t>
+  </si>
+  <si>
+    <t>Estimated 
+time remaining (hrs)</t>
+  </si>
+  <si>
+    <t>Actual 
+time remaining (hrs)</t>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -207,6 +226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +242,2527 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 1 burndown chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated 
+time remaining (hrs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1'!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70833333333333404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83333333333333404</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95833333333333404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4978-4B1F-84EA-6BDC75D944E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 
+time remaining (hrs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$H$4:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4978-4B1F-84EA-6BDC75D944E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="575507048"/>
+        <c:axId val="575499176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="575507048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Hours Sep</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> 11th</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575499176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="575499176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time remaining (hrs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575507048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 2 burndown chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated 
+time remaining (hrs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16666666666666699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29166666666666702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41666666666666702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45833333333333298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70833333333333404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79166666666666696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83333333333333404</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91666666666666696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95833333333333404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$G$4:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E46B-47C5-A446-AC3C38B152B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 
+time remaining (hrs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$H$4:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E46B-47C5-A446-AC3C38B152B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="575497864"/>
+        <c:axId val="575501472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="575497864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Hours Sep 12th</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575501472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="575501472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time remainting (hrs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575497864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8547FC-4071-4B0E-B93A-930369527081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB84E03E-0346-4458-B3F4-45CED5DD5F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,7 +3085,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,22 +3102,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -584,19 +3125,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,19 +3145,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -624,19 +3165,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -644,19 +3185,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,19 +3205,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -684,19 +3225,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -704,19 +3245,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -724,19 +3265,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +3290,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,34 +3308,34 @@
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -805,13 +3346,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
         <v>8</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -822,13 +3366,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
         <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -839,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -856,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -873,7 +3420,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -890,7 +3437,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -907,7 +3454,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -924,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -940,12 +3487,710 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB64763A-C4C9-4496-9725-945119ED7C76}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'Product backlog'!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>'Product backlog'!E4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'Product backlog'!B4</f>
+        <v>Load dataset</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'Product backlog'!C4</f>
+        <v>Model</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'Product backlog'!A5</f>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>'Product backlog'!E5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Product backlog'!B5</f>
+        <v>Visualize data</v>
+      </c>
+      <c r="D5" t="str">
+        <f>'Product backlog'!C5</f>
+        <v>User</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBD0007-BE18-4BA0-9970-8DEE603C8453}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'Product backlog'!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>'Product backlog'!E4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'Product backlog'!B4</f>
+        <v>Load dataset</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'Product backlog'!C4</f>
+        <v>Model</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'Product backlog'!A5</f>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>'Product backlog'!E5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Product backlog'!B5</f>
+        <v>Visualize data</v>
+      </c>
+      <c r="D5" t="str">
+        <f>'Product backlog'!C5</f>
+        <v>User</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>